--- a/dataTableWrite/Data/data.xlsx
+++ b/dataTableWrite/Data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9836A01-6D1E-47CB-AB0D-5B078BD741F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235AE584-DA82-474F-A712-6D0A575E53F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>val</t>
-  </si>
-  <si>
-    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -367,7 +364,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,9 +387,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -408,9 +402,6 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
